--- a/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,45%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-21,74%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 3,4</t>
+          <t>-3,51; 6,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -1,38</t>
+          <t>0,0; 9,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 0,0</t>
+          <t>-4,65; 2,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>-38,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,64</t>
+          <t>-5,63; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,04</t>
+          <t>-12,8; -1,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,25</t>
+          <t>-9,64; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,27 +604,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>620,55%</t>
+          <t>312,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>59,6%</t>
+          <t>101,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,91</t>
+          <t>-1,02; 17,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,1</t>
+          <t>-3,61; 7,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,88</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>362,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>178,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>60,63%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,64</t>
+          <t>-0,43; 12,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,04</t>
+          <t>-0,88; 7,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,25</t>
+          <t>-4,06; 4,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,45%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 3,4</t>
+          <t>0,0; 16,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -1,38</t>
+          <t>-10,17; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 0,0</t>
+          <t>-9,79; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>187,04%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,89%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,27 +882,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 7,17</t>
+          <t>-11,65; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,0</t>
+          <t>-15,95; -1,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 1034,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,03; 267,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -911,10 +911,98 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>187,04%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-17,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-22,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 6,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 1,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 1,61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-17,89; 1221,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-81,96; 220,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 17,84</t>
+          <t>-1,25; 17,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,03</t>
+          <t>-3,52; 6,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,98</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 12,13</t>
+          <t>-0,1; 12,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,76</t>
+          <t>-1,26; 6,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,65</t>
+          <t>-3,07; 4,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,62</t>
+          <t>0,0; 18,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 0,0</t>
+          <t>-9,83; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,0</t>
+          <t>-9,97; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 0,0</t>
+          <t>-10,2; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,95; -1,86</t>
+          <t>-15,76; -1,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,97</t>
+          <t>0,25; 7,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,93</t>
+          <t>-3,05; 1,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,61</t>
+          <t>-2,56; 1,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 1221,68</t>
+          <t>-18,98; 1020,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-81,96; 220,18</t>
+          <t>-83,76; 277,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 17,52</t>
+          <t>-1,08; 17,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 6,87</t>
+          <t>-3,68; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,54</t>
+          <t>0,0; 10,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 12,41</t>
+          <t>-0,17; 13,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,88</t>
+          <t>-1,11; 6,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 4,71</t>
+          <t>-4,06; 4,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,95</t>
+          <t>0,0; 17,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-10,15; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 0,0</t>
+          <t>-12,96; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 0,0</t>
+          <t>-11,67; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -1,85</t>
+          <t>-14,59; -1,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 7,41</t>
+          <t>0,23; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,98</t>
+          <t>-2,73; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,36</t>
+          <t>-2,4; 1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 1020,58</t>
+          <t>-18,0; 1034,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,76; 277,74</t>
+          <t>-80,03; 267,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
